--- a/images/Presenstation_Images.xlsx
+++ b/images/Presenstation_Images.xlsx
@@ -877,44 +877,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>284</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>370286</xdr:colOff>
-      <xdr:row>306</xdr:row>
-      <xdr:rowOff>161381</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="54102000"/>
-          <a:ext cx="9514286" cy="4352381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>308</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -932,7 +894,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -941,6 +903,44 @@
         <a:xfrm>
           <a:off x="0" y="58674000"/>
           <a:ext cx="9590476" cy="2923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>93867</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>161238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="61912500"/>
+          <a:ext cx="11066667" cy="5495238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="R317" sqref="R317"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="Z313" sqref="Z313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
